--- a/Assignment1/DataAnalysis.xlsx
+++ b/Assignment1/DataAnalysis.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funlazers\Documents\GitHub\MSIM-480\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DB8C74-81EF-4E6D-8DAA-73C6B030B63D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50616FB4-A29D-41FE-8F8D-348F73513E47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5070" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar_Experiments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1215,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,8 +1241,8 @@
     <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>11</v>
@@ -1250,7 +1260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1280,7 @@
         <v>0.14941599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1300,7 @@
         <v>406.33457600000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,8 +1319,12 @@
       <c r="F5" s="20">
         <v>3.2074720000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>_xlfn.STDEV.S(E4,E11,E18,E25)</f>
+        <v>6.3475637012483972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1344,7 @@
         <v>2800.4807759999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1364,7 @@
         <v>2800.1315760000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1384,7 @@
         <v>2800.5594160000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1404,7 @@
         <v>2801.4015960000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1424,7 @@
         <v>0.14643600000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1430,7 +1444,7 @@
         <v>406.33255600000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1450,7 +1464,7 @@
         <v>3.5543960000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1470,7 +1484,7 @@
         <v>2800.4287319999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1504,7 @@
         <v>2800.349076</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1510,7 +1524,7 @@
         <v>2800.2850119999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
